--- a/Oracle/삼성전자 시가총액, 나머지 동일가중, 전체 시총제한 1천억/3factor_13factor_wicsmid_result_20170831_25종목(매출액_시가총액중심).xlsx
+++ b/Oracle/삼성전자 시가총액, 나머지 동일가중, 전체 시총제한 1천억/3factor_13factor_wicsmid_result_20170831_25종목(매출액_시가총액중심).xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SH-NoteBook\Google 드라이브\python\Oracle\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SH-NoteBook\Google 드라이브\python\Oracle\삼성전자 시가총액, 나머지 동일가중, 전체 시총제한 1천억\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -542,11 +542,11 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" altLang="ko-KR"/>
-              <a:t>323740, IR</a:t>
+              <a:t>3233343740, IR</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-US" altLang="ko-KR" baseline="0"/>
-              <a:t> = 0.90,  </a:t>
+              <a:t> = 1.17,  </a:t>
             </a:r>
             <a:r>
               <a:rPr lang="ko-KR" altLang="en-US" baseline="0"/>
@@ -554,7 +554,7 @@
             </a:r>
             <a:r>
               <a:rPr lang="en-US" altLang="ko-KR" baseline="0"/>
-              <a:t>= 80.0%</a:t>
+              <a:t>= 93.3%</a:t>
             </a:r>
             <a:endParaRPr lang="ko-KR" altLang="en-US"/>
           </a:p>
@@ -939,319 +939,319 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="105"/>
                 <c:pt idx="0">
-                  <c:v>-3.3749286115376975E-2</c:v>
+                  <c:v>-1.0026820054786278E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-8.8377207607967967E-2</c:v>
+                  <c:v>-4.0324416939307328E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-6.8842721744255875E-2</c:v>
+                  <c:v>-2.5317905680965924E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-3.2032771543666461E-2</c:v>
+                  <c:v>1.4176079065848501E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.20696451280633E-3</c:v>
+                  <c:v>2.597174651522538E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-1.7351731105780255E-3</c:v>
+                  <c:v>-1.3689118231426711E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-3.7824274713808448E-2</c:v>
+                  <c:v>-4.0196057535779595E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.0826595817585734E-3</c:v>
+                  <c:v>2.1132156621355147E-3</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.9893853657640292E-2</c:v>
+                  <c:v>3.9784975343848616E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-2.3899298318467155E-2</c:v>
+                  <c:v>-3.4957267588410224E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>7.6976078090807754E-2</c:v>
+                  <c:v>4.9743013979850481E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>9.6687535848247075E-2</c:v>
+                  <c:v>3.6756914149054909E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.10201098058900238</c:v>
+                  <c:v>7.4250744908096689E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.11132312674797618</c:v>
+                  <c:v>7.2373313308714327E-2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>8.9007807295705677E-2</c:v>
+                  <c:v>2.8740375472823265E-2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>6.5607479370872968E-2</c:v>
+                  <c:v>-2.1817906882684257E-2</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>4.9008059471107313E-2</c:v>
+                  <c:v>9.2930892528964026E-3</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>6.3713838039363146E-2</c:v>
+                  <c:v>5.6865551552801152E-2</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>9.3526554660101402E-2</c:v>
+                  <c:v>9.9835489328706117E-2</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2.323152132227313E-2</c:v>
+                  <c:v>6.8373279626914751E-2</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>3.4977438874310707E-3</c:v>
+                  <c:v>4.1541034978864744E-3</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>2.3988815158808796E-2</c:v>
+                  <c:v>5.2779578858811904E-2</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.11261012875736354</c:v>
+                  <c:v>0.10982988050394327</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>7.1958724243613714E-2</c:v>
+                  <c:v>0.10204836333536882</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>6.5403286254676063E-2</c:v>
+                  <c:v>3.3003864307477926E-2</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>6.3939337288800857E-2</c:v>
+                  <c:v>5.1658792784908591E-2</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>7.3729625508657248E-2</c:v>
+                  <c:v>6.0920543649767955E-2</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>2.4620939237936845E-2</c:v>
+                  <c:v>5.9570427008243776E-2</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>-4.2631951145630786E-3</c:v>
+                  <c:v>0.13618314653184682</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>-6.6503267491940132E-2</c:v>
+                  <c:v>0.12122518096010815</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>-5.9068414148964576E-2</c:v>
+                  <c:v>9.0748920773796593E-2</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>4.7659862873366432E-2</c:v>
+                  <c:v>0.25843044018956252</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.1108540604335424</c:v>
+                  <c:v>0.2990343079800144</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>8.5102517205256301E-2</c:v>
+                  <c:v>0.25858173279916741</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>3.3921589808893371E-2</c:v>
+                  <c:v>0.20836707491929829</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>6.9088004086892862E-2</c:v>
+                  <c:v>0.24235612352898994</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.11297718904979892</c:v>
+                  <c:v>0.31491405461107391</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>8.9908115830826474E-2</c:v>
+                  <c:v>0.28923393516889939</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.11829160346737555</c:v>
+                  <c:v>0.3658531100848943</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.12976814498706168</c:v>
+                  <c:v>0.30723099819022404</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0.12875545742944328</c:v>
+                  <c:v>0.21266743986168446</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0.15370564288586885</c:v>
+                  <c:v>0.21639554878129619</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0.13556609323994728</c:v>
+                  <c:v>0.22201424784941504</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>5.5339474149376011E-2</c:v>
+                  <c:v>9.5524618642751302E-2</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>7.4879125830650928E-2</c:v>
+                  <c:v>0.13696820134606558</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0.10522043778335077</c:v>
+                  <c:v>0.16827388414403943</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0.13403836508584366</c:v>
+                  <c:v>0.1801573033720425</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>0.13350068560429795</c:v>
+                  <c:v>0.20453220353811896</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>8.2412602330726337E-2</c:v>
+                  <c:v>0.12760721419837595</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>0.16600498880412484</c:v>
+                  <c:v>0.18884746128394791</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>0.12814082261052295</c:v>
+                  <c:v>0.15543086895379132</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>0.19502194341295176</c:v>
+                  <c:v>0.22379395592485951</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>0.27327732861512266</c:v>
+                  <c:v>0.35063376555626369</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>0.2704415111731937</c:v>
+                  <c:v>0.36225028566796813</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>0.18812983190160537</c:v>
+                  <c:v>0.25913949739559183</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>0.19528322758890493</c:v>
+                  <c:v>0.2492061142380253</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>9.03628098756033E-2</c:v>
+                  <c:v>0.17296758116433697</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>9.1003784813560751E-2</c:v>
+                  <c:v>0.17560447494300657</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>2.9083559414331273E-2</c:v>
+                  <c:v>0.16785330843973068</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>4.4169750477809355E-3</c:v>
+                  <c:v>0.11480577933014624</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>-3.1982217830113013E-2</c:v>
+                  <c:v>7.5220190963751543E-2</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>-2.6567953080139595E-2</c:v>
+                  <c:v>6.5339841959799916E-2</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>-8.6369954787236525E-3</c:v>
+                  <c:v>8.0444956030278458E-2</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>-2.4696087716991388E-2</c:v>
+                  <c:v>6.8040777090149329E-2</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>-4.9726922563804399E-2</c:v>
+                  <c:v>7.0292206532462931E-3</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>6.2387514701897073E-3</c:v>
+                  <c:v>6.473240320212692E-2</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>4.4538033152234258E-2</c:v>
+                  <c:v>9.6069778874788847E-2</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>8.8763186223379087E-2</c:v>
+                  <c:v>0.12639640251803241</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>0.19919718143791454</c:v>
+                  <c:v>0.22691238490853705</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>0.27096143461783284</c:v>
+                  <c:v>0.27557296762719252</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>0.29934820974019383</c:v>
+                  <c:v>0.25227735534601159</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>0.28001930201793834</c:v>
+                  <c:v>0.2212391114225204</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>0.35626835250897748</c:v>
+                  <c:v>0.30803590379277301</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>0.33278205117647097</c:v>
+                  <c:v>0.36238006170402315</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>0.38180405979059229</c:v>
+                  <c:v>0.38684716696569876</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>0.41820835063890494</c:v>
+                  <c:v>0.41176585911947172</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>0.48491949070120843</c:v>
+                  <c:v>0.47199130627668784</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>0.57166867641639296</c:v>
+                  <c:v>0.5331901512541255</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>0.54671520490227432</c:v>
+                  <c:v>0.60024768803849504</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>0.5180048773898438</c:v>
+                  <c:v>0.53982951063178342</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>0.4430699566006</c:v>
+                  <c:v>0.39491836076159959</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>0.4157604964390077</c:v>
+                  <c:v>0.36695217516721212</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>0.39685440906645719</c:v>
+                  <c:v>0.38892655527988662</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>0.39276977064679808</c:v>
+                  <c:v>0.38387545922358535</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>0.36580924086521938</c:v>
+                  <c:v>0.36343784745371654</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>0.39039945643335539</c:v>
+                  <c:v>0.29659700072196105</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>0.35049252340711179</c:v>
+                  <c:v>0.23440929194641635</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>0.31577966806863622</c:v>
+                  <c:v>0.21626582867759891</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>0.21644413274881447</c:v>
+                  <c:v>0.13649997891887877</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>0.11838561593324259</c:v>
+                  <c:v>3.5876071037180934E-2</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>0.10563123507470928</c:v>
+                  <c:v>1.261049802148384E-2</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>0.10457135383829308</c:v>
+                  <c:v>4.5114785795000945E-2</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>9.2394171337782938E-2</c:v>
+                  <c:v>6.0157715486348851E-2</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>5.5567158709695086E-2</c:v>
+                  <c:v>2.9461233294635569E-2</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>1.4097244448201485E-2</c:v>
+                  <c:v>5.1173416256580229E-3</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>5.9139189798312675E-2</c:v>
+                  <c:v>4.952655554864327E-2</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>7.8310309138509115E-2</c:v>
+                  <c:v>5.8670831104048249E-2</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>5.6518014505114733E-2</c:v>
+                  <c:v>8.416440361088795E-2</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>-1.1942241420045185E-2</c:v>
+                  <c:v>5.5081146673664705E-2</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>-4.1765999244066654E-2</c:v>
+                  <c:v>1.6768756858960954E-2</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>-2.0082168543197332E-2</c:v>
+                  <c:v>5.5592087081038688E-2</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>-6.2236287281662639E-2</c:v>
+                  <c:v>5.5515954594643091E-2</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>-3.435484071027739E-2</c:v>
+                  <c:v>4.5323626856609955E-2</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>-3.7016681092510773E-2</c:v>
+                  <c:v>2.4443915968227703E-2</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>-7.8078027753452073E-3</c:v>
+                  <c:v>5.5921062286193646E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3293,7 +3293,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4203,7 +4202,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -8765,7 +8763,7 @@
   <dimension ref="A1:GV232"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17:GV18"/>
+      <selection activeCell="P4" sqref="P3:P4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -10799,467 +10797,467 @@
       </c>
       <c r="H12">
         <f>CK18</f>
-        <v>0.911165330060968</v>
+        <v>0.88238285014662798</v>
       </c>
       <c r="I12">
         <f t="shared" ref="I12:BT12" si="4">CL18</f>
-        <v>1.05931240570368</v>
+        <v>1.0622964837181901</v>
       </c>
       <c r="J12">
         <f t="shared" si="4"/>
-        <v>0.94359587072680595</v>
+        <v>0.98135268406397602</v>
       </c>
       <c r="K12">
         <f t="shared" si="4"/>
-        <v>1.0487969586781301</v>
+        <v>1.0421411775823499</v>
       </c>
       <c r="L12">
         <f t="shared" si="4"/>
-        <v>1.01546817909964</v>
+        <v>1.03099885676294</v>
       </c>
       <c r="M12">
         <f t="shared" si="4"/>
-        <v>0.95249077575990604</v>
+        <v>0.93156206964124599</v>
       </c>
       <c r="N12">
         <f t="shared" si="4"/>
-        <v>0.92909361989385897</v>
+        <v>0.914304287432815</v>
       </c>
       <c r="O12">
         <f t="shared" si="4"/>
-        <v>0.90556045030769705</v>
+        <v>0.91378536515507902</v>
       </c>
       <c r="P12">
         <f t="shared" si="4"/>
-        <v>0.98441771483137597</v>
+        <v>0.99328637457181701</v>
       </c>
       <c r="Q12">
         <f t="shared" si="4"/>
-        <v>0.71590710084391695</v>
+        <v>0.72959127166219395</v>
       </c>
       <c r="R12">
         <f t="shared" si="4"/>
-        <v>0.98020961652096195</v>
+        <v>0.99279934228795497</v>
       </c>
       <c r="S12">
         <f t="shared" si="4"/>
-        <v>1.0409564480618601</v>
+        <v>1.0528491671732201</v>
       </c>
       <c r="T12">
         <f t="shared" si="4"/>
-        <v>1.02190577753051</v>
+        <v>1.0221028940024599</v>
       </c>
       <c r="U12">
         <f t="shared" si="4"/>
-        <v>0.93311514612819901</v>
+        <v>0.937627038126706</v>
       </c>
       <c r="V12">
         <f t="shared" si="4"/>
-        <v>1.1548732216208699</v>
+        <v>1.18945197889112</v>
       </c>
       <c r="W12">
         <f t="shared" si="4"/>
-        <v>1.1659209686246099</v>
+        <v>1.1201250608734901</v>
       </c>
       <c r="X12">
         <f t="shared" si="4"/>
-        <v>1.0163182441612</v>
+        <v>0.98305672460659199</v>
       </c>
       <c r="Y12">
         <f t="shared" si="4"/>
-        <v>1.00332254771348</v>
+        <v>0.99414230154874295</v>
       </c>
       <c r="Z12">
         <f t="shared" si="4"/>
-        <v>1.1490596149843</v>
+        <v>1.1330424937021</v>
       </c>
       <c r="AA12">
         <f t="shared" si="4"/>
-        <v>1.01651224229709</v>
+        <v>1.0453332834867199</v>
       </c>
       <c r="AB12">
         <f t="shared" si="4"/>
-        <v>1.01294367410252</v>
+        <v>0.99409959735593501</v>
       </c>
       <c r="AC12">
         <f t="shared" si="4"/>
-        <v>0.94719805734881601</v>
+        <v>0.95709716729883298</v>
       </c>
       <c r="AD12">
         <f t="shared" si="4"/>
-        <v>1.0098116981748999</v>
+        <v>1.0012521501533</v>
       </c>
       <c r="AE12">
         <f t="shared" si="4"/>
-        <v>1.0788828776446799</v>
+        <v>1.1156083758064801</v>
       </c>
       <c r="AF12">
         <f t="shared" si="4"/>
-        <v>0.95267660703953605</v>
+        <v>0.94435546618870403</v>
       </c>
       <c r="AG12">
         <f t="shared" si="4"/>
-        <v>0.99499257995458701</v>
+        <v>0.98769964636005203</v>
       </c>
       <c r="AH12">
         <f t="shared" si="4"/>
-        <v>1.0676269859985399</v>
+        <v>1.0749209731642699</v>
       </c>
       <c r="AI12">
         <f t="shared" si="4"/>
-        <v>1.0483117935127499</v>
+        <v>1.0386672980981</v>
       </c>
       <c r="AJ12">
         <f t="shared" si="4"/>
-        <v>0.95374017799375599</v>
+        <v>0.94587059629533099</v>
       </c>
       <c r="AK12">
         <f t="shared" si="4"/>
-        <v>1.0646552944952701</v>
+        <v>1.06586300101899</v>
       </c>
       <c r="AL12">
         <f t="shared" si="4"/>
-        <v>1.0072796052611599</v>
+        <v>1.0271994781028899</v>
       </c>
       <c r="AM12">
         <f t="shared" si="4"/>
-        <v>0.96830677332932702</v>
+        <v>0.95881599965374797</v>
       </c>
       <c r="AN12">
         <f t="shared" si="4"/>
-        <v>1.0544782192405899</v>
+        <v>1.0602872417718101</v>
       </c>
       <c r="AO12">
         <f t="shared" si="4"/>
-        <v>1.0801680628241499</v>
+        <v>1.06237713281723</v>
       </c>
       <c r="AP12">
         <f t="shared" si="4"/>
-        <v>1.0040016783564101</v>
+        <v>1.02077482218014</v>
       </c>
       <c r="AQ12">
         <f t="shared" si="4"/>
-        <v>1.06881108817711</v>
+        <v>1.0528724296465299</v>
       </c>
       <c r="AR12">
         <f t="shared" si="4"/>
-        <v>1.0055926873766601</v>
+        <v>1.01334425449773</v>
       </c>
       <c r="AS12">
         <f t="shared" si="4"/>
-        <v>0.94680708768926103</v>
+        <v>0.93904141437538102</v>
       </c>
       <c r="AT12">
         <f t="shared" si="4"/>
-        <v>1.05039346761193</v>
+        <v>1.0975934572833601</v>
       </c>
       <c r="AU12">
         <f t="shared" si="4"/>
-        <v>1.0363300613109501</v>
+        <v>1.1111421761596401</v>
       </c>
       <c r="AV12">
         <f t="shared" si="4"/>
-        <v>0.94180553181513305</v>
+        <v>0.96728464332586095</v>
       </c>
       <c r="AW12">
         <f t="shared" si="4"/>
-        <v>1.01222533531792</v>
+        <v>0.99195622134371497</v>
       </c>
       <c r="AX12">
         <f t="shared" si="4"/>
-        <v>1.0776570271973001</v>
+        <v>1.1380280559595399</v>
       </c>
       <c r="AY12">
         <f t="shared" si="4"/>
-        <v>0.91413469322358498</v>
+        <v>0.89813586102207699</v>
       </c>
       <c r="AZ12">
         <f t="shared" si="4"/>
-        <v>0.91296855243179298</v>
+        <v>0.92611840731069595</v>
       </c>
       <c r="BA12">
         <f t="shared" si="4"/>
-        <v>1.09878507049299</v>
+        <v>1.07890111128058</v>
       </c>
       <c r="BB12">
         <f t="shared" si="4"/>
-        <v>0.99568977529227198</v>
+        <v>1.0125469090357899</v>
       </c>
       <c r="BC12">
         <f t="shared" si="4"/>
-        <v>1.03183300021444</v>
+        <v>1.0465489879837699</v>
       </c>
       <c r="BD12">
         <f t="shared" si="4"/>
-        <v>1.0373795888997701</v>
+        <v>1.03781296777957</v>
       </c>
       <c r="BE12">
         <f t="shared" si="4"/>
-        <v>1.0660503178513501</v>
+        <v>1.07490691947613</v>
       </c>
       <c r="BF12">
         <f t="shared" si="4"/>
-        <v>0.97881130843944297</v>
+        <v>0.98144099196994505</v>
       </c>
       <c r="BG12">
         <f t="shared" si="4"/>
-        <v>0.98575823205544</v>
+        <v>0.98225028076493603</v>
       </c>
       <c r="BH12">
         <f t="shared" si="4"/>
-        <v>0.92479648166927697</v>
+        <v>0.93274575434801099</v>
       </c>
       <c r="BI12">
         <f t="shared" si="4"/>
-        <v>1.0162086868361799</v>
+        <v>1.0175180795022101</v>
       </c>
       <c r="BJ12">
         <f t="shared" si="4"/>
-        <v>0.99238259973098397</v>
+        <v>1.0073605544499999</v>
       </c>
       <c r="BK12">
         <f t="shared" si="4"/>
-        <v>1.0609778532338101</v>
+        <v>1.0565997198105399</v>
       </c>
       <c r="BL12">
         <f t="shared" si="4"/>
-        <v>1.03467532764342</v>
+        <v>1.0436905326961601</v>
       </c>
       <c r="BM12">
         <f t="shared" si="4"/>
-        <v>1.0118083973732099</v>
+        <v>0.98355800191382403</v>
       </c>
       <c r="BN12">
         <f t="shared" si="4"/>
-        <v>1.0343504378944499</v>
+        <v>1.0716734734264</v>
       </c>
       <c r="BO12">
         <f t="shared" si="4"/>
-        <v>1.0287922166871699</v>
+        <v>1.0220213102389</v>
       </c>
       <c r="BP12">
         <f t="shared" si="4"/>
-        <v>1.03112347966796</v>
+        <v>1.01279399195856</v>
       </c>
       <c r="BQ12">
         <f t="shared" si="4"/>
-        <v>1.02696923813276</v>
+        <v>1.0402670077438601</v>
       </c>
       <c r="BR12">
         <f t="shared" si="4"/>
-        <v>1.03459619952495</v>
+        <v>1.0373133408588799</v>
       </c>
       <c r="BS12">
         <f t="shared" si="4"/>
-        <v>1.04678154329899</v>
+        <v>1.0807620032580101</v>
       </c>
       <c r="BT12">
         <f t="shared" si="4"/>
-        <v>0.99191264894307296</v>
+        <v>1.0065839425541201</v>
       </c>
       <c r="BU12">
         <f t="shared" ref="BU12:DH12" si="5">EX18</f>
-        <v>0.89421894808363001</v>
+        <v>0.88849880591511199</v>
       </c>
       <c r="BV12">
         <f t="shared" si="5"/>
-        <v>1.0083155809495701</v>
+        <v>1.00900973903713</v>
       </c>
       <c r="BW12">
         <f t="shared" si="5"/>
-        <v>0.96401225162428905</v>
+        <v>0.98807997550445403</v>
       </c>
       <c r="BX12">
         <f t="shared" si="5"/>
-        <v>1.02515790271796</v>
+        <v>1.0365191288989899</v>
       </c>
       <c r="BY12">
         <f t="shared" si="5"/>
-        <v>1.0112830120326299</v>
+        <v>1.0283895617591201</v>
       </c>
       <c r="BZ12">
         <f t="shared" si="5"/>
-        <v>1.0073566378768699</v>
+        <v>1.0221259460119001</v>
       </c>
       <c r="CA12">
         <f t="shared" si="5"/>
-        <v>0.94437333338734397</v>
+        <v>0.94327512706138805</v>
       </c>
       <c r="CB12">
         <f t="shared" si="5"/>
-        <v>1.0180776515088801</v>
+        <v>0.98693782452365997</v>
       </c>
       <c r="CC12">
         <f t="shared" si="5"/>
-        <v>1.0329225531876201</v>
+        <v>1.04298487557558</v>
       </c>
       <c r="CD12">
         <f t="shared" si="5"/>
-        <v>1.0316801712905199</v>
+        <v>1.03822108913982</v>
       </c>
       <c r="CE12">
         <f t="shared" si="5"/>
-        <v>1.02888058541005</v>
+        <v>1.0271592218619701</v>
       </c>
       <c r="CF12">
         <f t="shared" si="5"/>
-        <v>1.0483672533287201</v>
+        <v>1.06237982933105</v>
       </c>
       <c r="CG12">
         <f t="shared" si="5"/>
-        <v>0.99751248209257204</v>
+        <v>0.97965081745728699</v>
       </c>
       <c r="CH12">
         <f t="shared" si="5"/>
-        <v>1.05730548886305</v>
+        <v>1.04389540898044</v>
       </c>
       <c r="CI12">
         <f t="shared" si="5"/>
-        <v>1.0457999032731</v>
+        <v>1.0612128623568799</v>
       </c>
       <c r="CJ12">
         <f t="shared" si="5"/>
-        <v>1.03283992488771</v>
+        <v>1.0257099094316899</v>
       </c>
       <c r="CK12">
         <f t="shared" si="5"/>
-        <v>0.99903036975234305</v>
+        <v>0.97468198746500501</v>
       </c>
       <c r="CL12">
         <f t="shared" si="5"/>
-        <v>0.99278511669082303</v>
+        <v>0.99695959500438502</v>
       </c>
       <c r="CM12">
         <f t="shared" si="5"/>
-        <v>0.98974053822656805</v>
+        <v>0.99918966154522104</v>
       </c>
       <c r="CN12">
         <f t="shared" si="5"/>
-        <v>1.0400911459986799</v>
+        <v>1.07003712602715</v>
       </c>
       <c r="CO12">
         <f t="shared" si="5"/>
-        <v>1.06983571403787</v>
+        <v>1.0607095445996999</v>
       </c>
       <c r="CP12">
         <f t="shared" si="5"/>
-        <v>1.0774110492745299</v>
+        <v>1.0754947169429301</v>
       </c>
       <c r="CQ12">
         <f t="shared" si="5"/>
-        <v>1.1164640379197299</v>
+        <v>1.1103601035480899</v>
       </c>
       <c r="CR12">
         <f t="shared" si="5"/>
-        <v>1.0901357255503901</v>
+        <v>1.0876166275511201</v>
       </c>
       <c r="CS12">
         <f t="shared" si="5"/>
-        <v>0.96751535092484198</v>
+        <v>1.0060542688613801</v>
       </c>
       <c r="CT12">
         <f t="shared" si="5"/>
-        <v>0.99931657828689202</v>
+        <v>0.96828560813018305</v>
       </c>
       <c r="CU12">
         <f t="shared" si="5"/>
-        <v>0.96594739957353004</v>
+        <v>0.93241936734818998</v>
       </c>
       <c r="CV12">
         <f t="shared" si="5"/>
-        <v>1.0371423969667799</v>
+        <v>1.02963182180858</v>
       </c>
       <c r="CW12">
         <f t="shared" si="5"/>
-        <v>1.0296750987744101</v>
+        <v>1.03543656758244</v>
       </c>
       <c r="CX12">
         <f t="shared" si="5"/>
-        <v>0.97088483230480405</v>
+        <v>0.97416705293971295</v>
       </c>
       <c r="CY12">
         <f t="shared" si="5"/>
-        <v>0.98355297534697705</v>
+        <v>0.99759358880006299</v>
       </c>
       <c r="CZ12">
         <f t="shared" si="5"/>
-        <v>1.0263488157004499</v>
+        <v>0.98535361557695</v>
       </c>
       <c r="DA12">
         <f t="shared" si="5"/>
-        <v>1.0264280255957301</v>
+        <v>0.99601252056454204</v>
       </c>
       <c r="DB12">
         <f t="shared" si="5"/>
-        <v>1.0593693489562599</v>
+        <v>1.0705976302293601</v>
       </c>
       <c r="DC12">
         <f t="shared" si="5"/>
-        <v>0.99586873604370796</v>
+        <v>0.99862599837506405</v>
       </c>
       <c r="DD12">
         <f t="shared" si="5"/>
-        <v>0.99787486504575995</v>
+        <v>0.98611910041482598</v>
       </c>
       <c r="DE12">
         <f t="shared" si="5"/>
-        <v>0.96688483748127696</v>
+        <v>0.99448310050361199</v>
       </c>
       <c r="DF12">
         <f t="shared" si="5"/>
-        <v>1.0391981998149</v>
+        <v>1.04442773646205</v>
       </c>
       <c r="DG12">
         <f t="shared" si="5"/>
-        <v>1.00351190130891</v>
+        <v>0.99520245081125702</v>
       </c>
       <c r="DH12">
         <f t="shared" si="5"/>
-        <v>0.99745745777609995</v>
+        <v>0.99478436262020797</v>
       </c>
       <c r="DI12">
         <f t="shared" ref="DI12" si="6">GL18</f>
-        <v>0.94223915308494</v>
+        <v>0.96193040712691003</v>
       </c>
       <c r="DJ12">
         <f t="shared" ref="DJ12" si="7">GM18</f>
-        <v>1.0204784431943199</v>
+        <v>1.0237578726638601</v>
       </c>
       <c r="DK12">
         <f t="shared" ref="DK12" si="8">GN18</f>
-        <v>1.0363734316294899</v>
+        <v>1.0420912143821901</v>
       </c>
       <c r="DL12">
         <f t="shared" ref="DL12" si="9">GO18</f>
-        <v>1.05065299575489</v>
+        <v>1.0517789281177099</v>
       </c>
       <c r="DM12">
         <f t="shared" ref="DM12" si="10">GP18</f>
-        <v>0.97365906256828605</v>
+        <v>0.97967276262470504</v>
       </c>
       <c r="DN12">
         <f t="shared" ref="DN12" si="11">GQ18</f>
-        <v>1.0213297908386101</v>
+        <v>1.0264749471008601</v>
       </c>
       <c r="DO12">
         <f t="shared" ref="DO12" si="12">GR18</f>
-        <v>1.0392004833337301</v>
+        <v>1.0553359484962701</v>
       </c>
       <c r="DP12">
         <f t="shared" ref="DP12" si="13">GS18</f>
-        <v>1.03040987784801</v>
+        <v>1.0518991221335601</v>
       </c>
       <c r="DQ12">
         <f t="shared" ref="DQ12" si="14">GT18</f>
-        <v>1.01712216805468</v>
+        <v>1.01068456407052</v>
       </c>
       <c r="DR12">
         <f t="shared" ref="DR12" si="15">GU18</f>
-        <v>1.0173094958837701</v>
+        <v>1.0087104782598399</v>
       </c>
       <c r="DS12">
         <f t="shared" ref="DS12" si="16">GV18</f>
-        <v>1.0026195753338201</v>
+        <v>0.99621840641542903</v>
       </c>
     </row>
     <row r="13" spans="1:124" x14ac:dyDescent="0.4">
@@ -11268,423 +11266,423 @@
       </c>
       <c r="H13">
         <f ca="1">PRODUCT(OFFSET(H12,0,0,1,12))</f>
-        <v>0.55897235130535861</v>
+        <v>0.5826948173659493</v>
       </c>
       <c r="I13">
         <f t="shared" ref="I13:BT13" ca="1" si="17">PRODUCT(OFFSET(I12,0,0,1,12))</f>
-        <v>0.62690826399259336</v>
+        <v>0.674961054661254</v>
       </c>
       <c r="J13">
         <f t="shared" ca="1" si="17"/>
-        <v>0.55222387013945673</v>
+        <v>0.59574868620274668</v>
       </c>
       <c r="K13">
         <f t="shared" ca="1" si="17"/>
-        <v>0.67587044385079009</v>
+        <v>0.72207929446030505</v>
       </c>
       <c r="L13">
         <f t="shared" ca="1" si="17"/>
-        <v>0.75134802407554901</v>
+        <v>0.77611280607796806</v>
       </c>
       <c r="M13">
         <f t="shared" ca="1" si="17"/>
-        <v>0.75197698982502759</v>
+        <v>0.7400230447041789</v>
       </c>
       <c r="N13">
         <f t="shared" ca="1" si="17"/>
-        <v>0.79210790115130769</v>
+        <v>0.78973611832933654</v>
       </c>
       <c r="O13">
         <f t="shared" ca="1" si="17"/>
-        <v>0.979642073128135</v>
+        <v>0.97867262920851195</v>
       </c>
       <c r="P13">
         <f t="shared" ca="1" si="17"/>
-        <v>1.0996705521599193</v>
+        <v>1.1195616738461276</v>
       </c>
       <c r="Q13">
         <f t="shared" ca="1" si="17"/>
-        <v>1.1315362499322963</v>
+        <v>1.1204782806623532</v>
       </c>
       <c r="R13">
         <f t="shared" ca="1" si="17"/>
-        <v>1.4971061699097576</v>
+        <v>1.4698731057988004</v>
       </c>
       <c r="S13">
         <f t="shared" ca="1" si="17"/>
-        <v>1.5423183962941289</v>
+        <v>1.4823877745949368</v>
       </c>
       <c r="T13">
         <f t="shared" ca="1" si="17"/>
-        <v>1.5985115541925665</v>
+        <v>1.5707513185116608</v>
       </c>
       <c r="U13">
         <f t="shared" ca="1" si="17"/>
-        <v>1.4902201330554692</v>
+        <v>1.4512703196162073</v>
       </c>
       <c r="V13">
         <f t="shared" ca="1" si="17"/>
-        <v>1.5890407320485351</v>
+        <v>1.5287733002256527</v>
       </c>
       <c r="W13">
         <f t="shared" ca="1" si="17"/>
-        <v>1.4689948088023392</v>
+        <v>1.381569422548782</v>
       </c>
       <c r="X13">
         <f t="shared" ca="1" si="17"/>
-        <v>1.3208138665634717</v>
+        <v>1.2810988963452608</v>
       </c>
       <c r="Y13">
         <f t="shared" ca="1" si="17"/>
-        <v>1.2394870006811185</v>
+        <v>1.2326387141945565</v>
       </c>
       <c r="Z13">
         <f t="shared" ca="1" si="17"/>
-        <v>1.3152563956033636</v>
+        <v>1.3215653302719683</v>
       </c>
       <c r="AA13">
         <f t="shared" ca="1" si="17"/>
-        <v>1.1529697203731888</v>
+        <v>1.1981114786778304</v>
       </c>
       <c r="AB13">
         <f t="shared" ca="1" si="17"/>
-        <v>1.0982931077722198</v>
+        <v>1.0989494673826752</v>
       </c>
       <c r="AC13">
         <f t="shared" ca="1" si="17"/>
-        <v>1.1433273044663386</v>
+        <v>1.1721180681663417</v>
       </c>
       <c r="AD13">
         <f t="shared" ca="1" si="17"/>
-        <v>1.3038304186307734</v>
+        <v>1.3010501703773532</v>
       </c>
       <c r="AE13">
         <f t="shared" ca="1" si="17"/>
-        <v>1.2963287422431</v>
+        <v>1.3264183813348551</v>
       </c>
       <c r="AF13">
         <f t="shared" ca="1" si="17"/>
-        <v>1.284227011422109</v>
+        <v>1.2518275894749109</v>
       </c>
       <c r="AG13">
         <f t="shared" ca="1" si="17"/>
-        <v>1.3555589400171573</v>
+        <v>1.343278395513265</v>
       </c>
       <c r="AH13">
         <f t="shared" ca="1" si="17"/>
-        <v>1.2899119431095305</v>
+        <v>1.2771028612506412</v>
       </c>
       <c r="AI13">
         <f t="shared" ca="1" si="17"/>
-        <v>1.2690903251847134</v>
+        <v>1.3040398129550204</v>
       </c>
       <c r="AJ13">
         <f t="shared" ca="1" si="17"/>
-        <v>1.2545851936862826</v>
+        <v>1.3950315353326925</v>
       </c>
       <c r="AK13">
         <f t="shared" ca="1" si="17"/>
-        <v>1.2388859175804137</v>
+        <v>1.4266143660324619</v>
       </c>
       <c r="AL13">
         <f t="shared" ca="1" si="17"/>
-        <v>1.1778758062138714</v>
+        <v>1.3276931411366326</v>
       </c>
       <c r="AM13">
         <f t="shared" ca="1" si="17"/>
-        <v>1.2601725807830257</v>
+        <v>1.4709431580992218</v>
       </c>
       <c r="AN13">
         <f t="shared" ca="1" si="17"/>
-        <v>1.1896720205540416</v>
+        <v>1.3778522681005136</v>
       </c>
       <c r="AO13">
         <f t="shared" ca="1" si="17"/>
-        <v>1.0300195135903678</v>
+        <v>1.2034987291842789</v>
       </c>
       <c r="AP13">
         <f t="shared" ca="1" si="17"/>
-        <v>1.0477721965695614</v>
+        <v>1.2222176816799664</v>
       </c>
       <c r="AQ13">
         <f t="shared" ca="1" si="17"/>
-        <v>1.0390979272740735</v>
+        <v>1.2123660467161705</v>
       </c>
       <c r="AR13">
         <f t="shared" ca="1" si="17"/>
-        <v>1.0031478375139629</v>
+        <v>1.2050847030752379</v>
       </c>
       <c r="AS13">
         <f t="shared" ca="1" si="17"/>
-        <v>1.0348574570492466</v>
+        <v>1.2341832763873195</v>
       </c>
       <c r="AT13">
         <f t="shared" ca="1" si="17"/>
-        <v>1.1651899688569491</v>
+        <v>1.4127514754744679</v>
       </c>
       <c r="AU13">
         <f t="shared" ca="1" si="17"/>
-        <v>1.0857846637130315</v>
+        <v>1.2632475169161939</v>
       </c>
       <c r="AV13">
         <f t="shared" ca="1" si="17"/>
-        <v>1.0327995012908531</v>
+        <v>1.1167114837230943</v>
       </c>
       <c r="AW13">
         <f t="shared" ca="1" si="17"/>
-        <v>1.0141470959750605</v>
+        <v>1.0768370018704878</v>
       </c>
       <c r="AX13">
         <f t="shared" ca="1" si="17"/>
-        <v>1.0181380100863169</v>
+        <v>1.1045861646957846</v>
       </c>
       <c r="AY13">
         <f t="shared" ca="1" si="17"/>
-        <v>0.93757329079190088</v>
+        <v>0.97775843528527617</v>
       </c>
       <c r="AZ13">
         <f t="shared" ca="1" si="17"/>
-        <v>1.0881815389873282</v>
+        <v>1.1502706145027428</v>
       </c>
       <c r="BA13">
         <f t="shared" ca="1" si="17"/>
-        <v>1.2332457535237511</v>
+        <v>1.2962991998844398</v>
       </c>
       <c r="BB13">
         <f t="shared" ca="1" si="17"/>
-        <v>1.1356255585820174</v>
+        <v>1.1817444968682163</v>
       </c>
       <c r="BC13">
         <f t="shared" ca="1" si="17"/>
-        <v>1.1797196505896028</v>
+        <v>1.2507511685234238</v>
       </c>
       <c r="BD13">
         <f t="shared" ca="1" si="17"/>
-        <v>1.1762430491632438</v>
+        <v>1.2214376610308935</v>
       </c>
       <c r="BE13">
         <f t="shared" ca="1" si="17"/>
-        <v>1.1691494981839661</v>
+        <v>1.1919919706637891</v>
       </c>
       <c r="BF13">
         <f t="shared" ca="1" si="17"/>
-        <v>1.1262888339391772</v>
+        <v>1.1535788802824456</v>
       </c>
       <c r="BG13">
         <f t="shared" ca="1" si="17"/>
-        <v>1.1904788360268026</v>
+        <v>1.2192508485387104</v>
       </c>
       <c r="BH13">
         <f t="shared" ca="1" si="17"/>
-        <v>1.2641753654367009</v>
+        <v>1.341531802377842</v>
       </c>
       <c r="BI13">
         <f t="shared" ca="1" si="17"/>
-        <v>1.3559216112019439</v>
+        <v>1.4477303856967183</v>
       </c>
       <c r="BJ13">
         <f t="shared" ca="1" si="17"/>
-        <v>1.193151379789696</v>
+        <v>1.2641610452836824</v>
       </c>
       <c r="BK13">
         <f t="shared" ca="1" si="17"/>
-        <v>1.2123077601315853</v>
+        <v>1.2662306467807056</v>
       </c>
       <c r="BL13">
         <f t="shared" ca="1" si="17"/>
-        <v>1.1015117138816499</v>
+        <v>1.1841164851703836</v>
       </c>
       <c r="BM13">
         <f t="shared" ca="1" si="17"/>
-        <v>1.0913794967877517</v>
+        <v>1.1759801869171975</v>
       </c>
       <c r="BN13">
         <f t="shared" ca="1" si="17"/>
-        <v>1.0908127938525809</v>
+        <v>1.2295825428779803</v>
       </c>
       <c r="BO13">
         <f t="shared" ca="1" si="17"/>
-        <v>1.06234547626357</v>
+        <v>1.1727342805459353</v>
       </c>
       <c r="BP13">
         <f t="shared" ca="1" si="17"/>
-        <v>0.97517333661269001</v>
+        <v>1.0823757454065546</v>
       </c>
       <c r="BQ13">
         <f t="shared" ca="1" si="17"/>
-        <v>0.9628353925879235</v>
+        <v>1.054743187627863</v>
       </c>
       <c r="BR13">
         <f t="shared" ca="1" si="17"/>
-        <v>0.96841692534003176</v>
+        <v>1.0574988768490339</v>
       </c>
       <c r="BS13">
         <f t="shared" ca="1" si="17"/>
-        <v>0.9656874245954048</v>
+        <v>1.0584242894025455</v>
       </c>
       <c r="BT13">
         <f t="shared" ca="1" si="17"/>
-        <v>0.94917325310258205</v>
+        <v>1.0059293963196327</v>
       </c>
       <c r="BU13">
         <f t="shared" ref="BU13:DH13" ca="1" si="18">PRODUCT(OFFSET(BU12,0,0,1,12))</f>
-        <v>1.0031953492563523</v>
+        <v>1.0616890009882896</v>
       </c>
       <c r="BV13">
         <f t="shared" ca="1" si="18"/>
-        <v>1.1190770280645412</v>
+        <v>1.1706087737870958</v>
       </c>
       <c r="BW13">
         <f t="shared" ca="1" si="18"/>
-        <v>1.1734483792454315</v>
+        <v>1.2110815955400849</v>
       </c>
       <c r="BX13">
         <f t="shared" ca="1" si="18"/>
-        <v>1.2730047771105824</v>
+        <v>1.3007199805812049</v>
       </c>
       <c r="BY13">
         <f t="shared" ca="1" si="18"/>
-        <v>1.2825440401782846</v>
+        <v>1.2871555731876443</v>
       </c>
       <c r="BZ13">
         <f t="shared" ca="1" si="18"/>
-        <v>1.2670048160975473</v>
+        <v>1.2199339617033651</v>
       </c>
       <c r="CA13">
         <f t="shared" ca="1" si="18"/>
-        <v>1.2486774563260363</v>
+        <v>1.1898972657306184</v>
       </c>
       <c r="CB13">
         <f t="shared" ca="1" si="18"/>
-        <v>1.3086632733080468</v>
+        <v>1.2604308245918423</v>
       </c>
       <c r="CC13">
         <f t="shared" ca="1" si="18"/>
-        <v>1.3369599869362012</v>
+        <v>1.3665579974637534</v>
       </c>
       <c r="CD13">
         <f t="shared" ca="1" si="18"/>
-        <v>1.3847384180449269</v>
+        <v>1.3897815252200334</v>
       </c>
       <c r="CE13">
         <f t="shared" ca="1" si="18"/>
-        <v>1.4461191689768464</v>
+        <v>1.4396766774574132</v>
       </c>
       <c r="CF13">
         <f t="shared" ca="1" si="18"/>
-        <v>1.5692200529428351</v>
+        <v>1.5562918685183145</v>
       </c>
       <c r="CG13">
         <f t="shared" ca="1" si="18"/>
-        <v>1.6317400562936835</v>
+        <v>1.593261531131416</v>
       </c>
       <c r="CH13">
         <f t="shared" ca="1" si="18"/>
-        <v>1.5826704743295568</v>
+        <v>1.6362029574657775</v>
       </c>
       <c r="CI13">
         <f t="shared" ca="1" si="18"/>
-        <v>1.4958674286874567</v>
+        <v>1.5176920619293963</v>
       </c>
       <c r="CJ13">
         <f t="shared" ca="1" si="18"/>
-        <v>1.3816498245267701</v>
+        <v>1.3334982286877697</v>
       </c>
       <c r="CK13">
         <f t="shared" ca="1" si="18"/>
-        <v>1.387405324144704</v>
+        <v>1.3385970028729084</v>
       </c>
       <c r="CL13">
         <f t="shared" ca="1" si="18"/>
-        <v>1.4299632497988832</v>
+        <v>1.4220353960123127</v>
       </c>
       <c r="CM13">
         <f t="shared" ca="1" si="18"/>
-        <v>1.3984190603205631</v>
+        <v>1.3895247488973503</v>
       </c>
       <c r="CN13">
         <f t="shared" ca="1" si="18"/>
-        <v>1.3896765611164217</v>
+        <v>1.3873051677049189</v>
       </c>
       <c r="CO13">
         <f t="shared" ca="1" si="18"/>
-        <v>1.3713152911603805</v>
+        <v>1.2775128354489862</v>
       </c>
       <c r="CP13">
         <f t="shared" ca="1" si="18"/>
-        <v>1.3156753212719523</v>
+        <v>1.1995920898112569</v>
       </c>
       <c r="CQ13">
         <f t="shared" ca="1" si="18"/>
-        <v>1.2936437856955207</v>
+        <v>1.1941299463044834</v>
       </c>
       <c r="CR13">
         <f t="shared" ca="1" si="18"/>
-        <v>1.1539103437239597</v>
+        <v>1.073966189894024</v>
       </c>
       <c r="CS13">
         <f t="shared" ca="1" si="18"/>
-        <v>1.0562520808471825</v>
+        <v>0.97374253595112081</v>
       </c>
       <c r="CT13">
         <f t="shared" ca="1" si="18"/>
-        <v>1.0555637391726749</v>
+        <v>0.96254300211944943</v>
       </c>
       <c r="CU13">
         <f t="shared" ca="1" si="18"/>
-        <v>1.0976901228023157</v>
+        <v>1.0382335547590236</v>
       </c>
       <c r="CV13">
         <f t="shared" ca="1" si="18"/>
-        <v>1.1403779363842168</v>
+        <v>1.1081414805327827</v>
       </c>
       <c r="CW13">
         <f t="shared" ca="1" si="18"/>
-        <v>1.0967428201338776</v>
+        <v>1.0706368947188181</v>
       </c>
       <c r="CX13">
         <f t="shared" ca="1" si="18"/>
-        <v>1.0036117482349045</v>
+        <v>0.99463184541236105</v>
       </c>
       <c r="CY13">
         <f t="shared" ca="1" si="18"/>
-        <v>1.0548770774171021</v>
+        <v>1.0452644431674327</v>
       </c>
       <c r="CZ13">
         <f t="shared" ca="1" si="18"/>
-        <v>1.1115279035014605</v>
+        <v>1.0918884254669996</v>
       </c>
       <c r="DA13">
         <f t="shared" ca="1" si="18"/>
-        <v>1.1378491442813772</v>
+        <v>1.1654955333871504</v>
       </c>
       <c r="DB13">
         <f t="shared" ca="1" si="18"/>
-        <v>1.0793519891685828</v>
+        <v>1.1463753772622927</v>
       </c>
       <c r="DC13">
         <f t="shared" ca="1" si="18"/>
-        <v>1.0405948996210783</v>
+        <v>1.0991296557241059</v>
       </c>
       <c r="DD13">
         <f t="shared" ca="1" si="18"/>
-        <v>1.0858727495923495</v>
+        <v>1.1615470052165855</v>
       </c>
       <c r="DE13">
         <f t="shared" ca="1" si="18"/>
-        <v>1.1212768719398758</v>
+        <v>1.2390291138161815</v>
       </c>
       <c r="DF13">
         <f t="shared" ca="1" si="18"/>
-        <v>1.1795360923726774</v>
+        <v>1.2592145599395648</v>
       </c>
       <c r="DG13">
         <f t="shared" ca="1" si="18"/>
-        <v>1.1546914416538574</v>
+        <v>1.2161520387145959</v>
       </c>
       <c r="DH13">
         <f t="shared" ca="1" si="18"/>
-        <v>1.1536646863505491</v>
+        <v>1.2173935514120879</v>
       </c>
     </row>
     <row r="14" spans="1:124" x14ac:dyDescent="0.4">
@@ -11693,429 +11691,429 @@
       </c>
       <c r="H14" s="14">
         <f ca="1">H13-H11</f>
-        <v>-3.3749286115376975E-2</v>
+        <v>-1.0026820054786278E-2</v>
       </c>
       <c r="I14" s="14">
         <f t="shared" ref="I14:BT14" ca="1" si="19">I13-I11</f>
-        <v>-8.8377207607967967E-2</v>
+        <v>-4.0324416939307328E-2</v>
       </c>
       <c r="J14" s="14">
         <f t="shared" ca="1" si="19"/>
-        <v>-6.8842721744255875E-2</v>
+        <v>-2.5317905680965924E-2</v>
       </c>
       <c r="K14" s="14">
         <f t="shared" ca="1" si="19"/>
-        <v>-3.2032771543666461E-2</v>
+        <v>1.4176079065848501E-2</v>
       </c>
       <c r="L14" s="14">
         <f t="shared" ca="1" si="19"/>
-        <v>1.20696451280633E-3</v>
+        <v>2.597174651522538E-2</v>
       </c>
       <c r="M14" s="14">
         <f t="shared" ca="1" si="19"/>
-        <v>-1.7351731105780255E-3</v>
+        <v>-1.3689118231426711E-2</v>
       </c>
       <c r="N14" s="14">
         <f t="shared" ca="1" si="19"/>
-        <v>-3.7824274713808448E-2</v>
+        <v>-4.0196057535779595E-2</v>
       </c>
       <c r="O14" s="14">
         <f t="shared" ca="1" si="19"/>
-        <v>3.0826595817585734E-3</v>
+        <v>2.1132156621355147E-3</v>
       </c>
       <c r="P14" s="14">
         <f t="shared" ca="1" si="19"/>
-        <v>1.9893853657640292E-2</v>
+        <v>3.9784975343848616E-2</v>
       </c>
       <c r="Q14" s="14">
         <f t="shared" ca="1" si="19"/>
-        <v>-2.3899298318467155E-2</v>
+        <v>-3.4957267588410224E-2</v>
       </c>
       <c r="R14" s="14">
         <f t="shared" ca="1" si="19"/>
-        <v>7.6976078090807754E-2</v>
+        <v>4.9743013979850481E-2</v>
       </c>
       <c r="S14" s="14">
         <f t="shared" ca="1" si="19"/>
-        <v>9.6687535848247075E-2</v>
+        <v>3.6756914149054909E-2</v>
       </c>
       <c r="T14" s="14">
         <f t="shared" ca="1" si="19"/>
-        <v>0.10201098058900238</v>
+        <v>7.4250744908096689E-2</v>
       </c>
       <c r="U14" s="14">
         <f t="shared" ca="1" si="19"/>
-        <v>0.11132312674797618</v>
+        <v>7.2373313308714327E-2</v>
       </c>
       <c r="V14" s="14">
         <f t="shared" ca="1" si="19"/>
-        <v>8.9007807295705677E-2</v>
+        <v>2.8740375472823265E-2</v>
       </c>
       <c r="W14" s="14">
         <f t="shared" ca="1" si="19"/>
-        <v>6.5607479370872968E-2</v>
+        <v>-2.1817906882684257E-2</v>
       </c>
       <c r="X14" s="14">
         <f t="shared" ca="1" si="19"/>
-        <v>4.9008059471107313E-2</v>
+        <v>9.2930892528964026E-3</v>
       </c>
       <c r="Y14" s="14">
         <f t="shared" ca="1" si="19"/>
-        <v>6.3713838039363146E-2</v>
+        <v>5.6865551552801152E-2</v>
       </c>
       <c r="Z14" s="14">
         <f t="shared" ca="1" si="19"/>
-        <v>9.3526554660101402E-2</v>
+        <v>9.9835489328706117E-2</v>
       </c>
       <c r="AA14" s="14">
         <f t="shared" ca="1" si="19"/>
-        <v>2.323152132227313E-2</v>
+        <v>6.8373279626914751E-2</v>
       </c>
       <c r="AB14" s="14">
         <f t="shared" ca="1" si="19"/>
-        <v>3.4977438874310707E-3</v>
+        <v>4.1541034978864744E-3</v>
       </c>
       <c r="AC14" s="14">
         <f t="shared" ca="1" si="19"/>
-        <v>2.3988815158808796E-2</v>
+        <v>5.2779578858811904E-2</v>
       </c>
       <c r="AD14" s="14">
         <f t="shared" ca="1" si="19"/>
-        <v>0.11261012875736354</v>
+        <v>0.10982988050394327</v>
       </c>
       <c r="AE14" s="14">
         <f t="shared" ca="1" si="19"/>
-        <v>7.1958724243613714E-2</v>
+        <v>0.10204836333536882</v>
       </c>
       <c r="AF14" s="14">
         <f t="shared" ca="1" si="19"/>
-        <v>6.5403286254676063E-2</v>
+        <v>3.3003864307477926E-2</v>
       </c>
       <c r="AG14" s="14">
         <f t="shared" ca="1" si="19"/>
-        <v>6.3939337288800857E-2</v>
+        <v>5.1658792784908591E-2</v>
       </c>
       <c r="AH14" s="14">
         <f t="shared" ca="1" si="19"/>
-        <v>7.3729625508657248E-2</v>
+        <v>6.0920543649767955E-2</v>
       </c>
       <c r="AI14" s="14">
         <f t="shared" ca="1" si="19"/>
-        <v>2.4620939237936845E-2</v>
+        <v>5.9570427008243776E-2</v>
       </c>
       <c r="AJ14" s="14">
         <f t="shared" ca="1" si="19"/>
-        <v>-4.2631951145630786E-3</v>
+        <v>0.13618314653184682</v>
       </c>
       <c r="AK14" s="14">
         <f t="shared" ca="1" si="19"/>
-        <v>-6.6503267491940132E-2</v>
+        <v>0.12122518096010815</v>
       </c>
       <c r="AL14" s="14">
         <f t="shared" ca="1" si="19"/>
-        <v>-5.9068414148964576E-2</v>
+        <v>9.0748920773796593E-2</v>
       </c>
       <c r="AM14" s="14">
         <f t="shared" ca="1" si="19"/>
-        <v>4.7659862873366432E-2</v>
+        <v>0.25843044018956252</v>
       </c>
       <c r="AN14" s="14">
         <f t="shared" ca="1" si="19"/>
-        <v>0.1108540604335424</v>
+        <v>0.2990343079800144</v>
       </c>
       <c r="AO14" s="14">
         <f t="shared" ca="1" si="19"/>
-        <v>8.5102517205256301E-2</v>
+        <v>0.25858173279916741</v>
       </c>
       <c r="AP14" s="14">
         <f t="shared" ca="1" si="19"/>
-        <v>3.3921589808893371E-2</v>
+        <v>0.20836707491929829</v>
       </c>
       <c r="AQ14" s="14">
         <f t="shared" ca="1" si="19"/>
-        <v>6.9088004086892862E-2</v>
+        <v>0.24235612352898994</v>
       </c>
       <c r="AR14" s="14">
         <f t="shared" ca="1" si="19"/>
-        <v>0.11297718904979892</v>
+        <v>0.31491405461107391</v>
       </c>
       <c r="AS14" s="14">
         <f t="shared" ca="1" si="19"/>
-        <v>8.9908115830826474E-2</v>
+        <v>0.28923393516889939</v>
       </c>
       <c r="AT14" s="14">
         <f t="shared" ca="1" si="19"/>
-        <v>0.11829160346737555</v>
+        <v>0.3658531100848943</v>
       </c>
       <c r="AU14" s="14">
         <f t="shared" ca="1" si="19"/>
-        <v>0.12976814498706168</v>
+        <v>0.30723099819022404</v>
       </c>
       <c r="AV14" s="14">
         <f t="shared" ca="1" si="19"/>
-        <v>0.12875545742944328</v>
+        <v>0.21266743986168446</v>
       </c>
       <c r="AW14" s="14">
         <f t="shared" ca="1" si="19"/>
-        <v>0.15370564288586885</v>
+        <v>0.21639554878129619</v>
       </c>
       <c r="AX14" s="14">
         <f t="shared" ca="1" si="19"/>
-        <v>0.13556609323994728</v>
+        <v>0.22201424784941504</v>
       </c>
       <c r="AY14" s="14">
         <f t="shared" ca="1" si="19"/>
-        <v>5.5339474149376011E-2</v>
+        <v>9.5524618642751302E-2</v>
       </c>
       <c r="AZ14" s="14">
         <f t="shared" ca="1" si="19"/>
-        <v>7.4879125830650928E-2</v>
+        <v>0.13696820134606558</v>
       </c>
       <c r="BA14" s="14">
         <f t="shared" ca="1" si="19"/>
-        <v>0.10522043778335077</v>
+        <v>0.16827388414403943</v>
       </c>
       <c r="BB14" s="14">
         <f t="shared" ca="1" si="19"/>
-        <v>0.13403836508584366</v>
+        <v>0.1801573033720425</v>
       </c>
       <c r="BC14" s="14">
         <f t="shared" ca="1" si="19"/>
-        <v>0.13350068560429795</v>
+        <v>0.20453220353811896</v>
       </c>
       <c r="BD14" s="14">
         <f t="shared" ca="1" si="19"/>
-        <v>8.2412602330726337E-2</v>
+        <v>0.12760721419837595</v>
       </c>
       <c r="BE14" s="14">
         <f t="shared" ca="1" si="19"/>
-        <v>0.16600498880412484</v>
+        <v>0.18884746128394791</v>
       </c>
       <c r="BF14" s="14">
         <f t="shared" ca="1" si="19"/>
-        <v>0.12814082261052295</v>
+        <v>0.15543086895379132</v>
       </c>
       <c r="BG14" s="14">
         <f t="shared" ca="1" si="19"/>
-        <v>0.19502194341295176</v>
+        <v>0.22379395592485951</v>
       </c>
       <c r="BH14" s="14">
         <f t="shared" ca="1" si="19"/>
-        <v>0.27327732861512266</v>
+        <v>0.35063376555626369</v>
       </c>
       <c r="BI14" s="14">
         <f t="shared" ca="1" si="19"/>
-        <v>0.2704415111731937</v>
+        <v>0.36225028566796813</v>
       </c>
       <c r="BJ14" s="14">
         <f t="shared" ca="1" si="19"/>
-        <v>0.18812983190160537</v>
+        <v>0.25913949739559183</v>
       </c>
       <c r="BK14" s="14">
         <f t="shared" ca="1" si="19"/>
-        <v>0.19528322758890493</v>
+        <v>0.2492061142380253</v>
       </c>
       <c r="BL14" s="14">
         <f t="shared" ca="1" si="19"/>
-        <v>9.03628098756033E-2</v>
+        <v>0.17296758116433697</v>
       </c>
       <c r="BM14" s="14">
         <f t="shared" ca="1" si="19"/>
-        <v>9.1003784813560751E-2</v>
+        <v>0.17560447494300657</v>
       </c>
       <c r="BN14" s="14">
         <f t="shared" ca="1" si="19"/>
-        <v>2.9083559414331273E-2</v>
+        <v>0.16785330843973068</v>
       </c>
       <c r="BO14" s="14">
         <f t="shared" ca="1" si="19"/>
-        <v>4.4169750477809355E-3</v>
+        <v>0.11480577933014624</v>
       </c>
       <c r="BP14" s="14">
         <f t="shared" ca="1" si="19"/>
-        <v>-3.1982217830113013E-2</v>
+        <v>7.5220190963751543E-2</v>
       </c>
       <c r="BQ14" s="14">
         <f t="shared" ca="1" si="19"/>
-        <v>-2.6567953080139595E-2</v>
+        <v>6.5339841959799916E-2</v>
       </c>
       <c r="BR14" s="14">
         <f t="shared" ca="1" si="19"/>
-        <v>-8.6369954787236525E-3</v>
+        <v>8.0444956030278458E-2</v>
       </c>
       <c r="BS14" s="14">
         <f t="shared" ca="1" si="19"/>
-        <v>-2.4696087716991388E-2</v>
+        <v>6.8040777090149329E-2</v>
       </c>
       <c r="BT14" s="14">
         <f t="shared" ca="1" si="19"/>
-        <v>-4.9726922563804399E-2</v>
+        <v>7.0292206532462931E-3</v>
       </c>
       <c r="BU14" s="14">
         <f t="shared" ref="BU14:DH14" ca="1" si="20">BU13-BU11</f>
-        <v>6.2387514701897073E-3</v>
+        <v>6.473240320212692E-2</v>
       </c>
       <c r="BV14" s="14">
         <f t="shared" ca="1" si="20"/>
-        <v>4.4538033152234258E-2</v>
+        <v>9.6069778874788847E-2</v>
       </c>
       <c r="BW14" s="14">
         <f t="shared" ca="1" si="20"/>
-        <v>8.8763186223379087E-2</v>
+        <v>0.12639640251803241</v>
       </c>
       <c r="BX14" s="14">
         <f t="shared" ca="1" si="20"/>
-        <v>0.19919718143791454</v>
+        <v>0.22691238490853705</v>
       </c>
       <c r="BY14" s="14">
         <f t="shared" ca="1" si="20"/>
-        <v>0.27096143461783284</v>
+        <v>0.27557296762719252</v>
       </c>
       <c r="BZ14" s="14">
         <f t="shared" ca="1" si="20"/>
-        <v>0.29934820974019383</v>
+        <v>0.25227735534601159</v>
       </c>
       <c r="CA14" s="14">
         <f t="shared" ca="1" si="20"/>
-        <v>0.28001930201793834</v>
+        <v>0.2212391114225204</v>
       </c>
       <c r="CB14" s="14">
         <f t="shared" ca="1" si="20"/>
-        <v>0.35626835250897748</v>
+        <v>0.30803590379277301</v>
       </c>
       <c r="CC14" s="14">
         <f t="shared" ca="1" si="20"/>
-        <v>0.33278205117647097</v>
+        <v>0.36238006170402315</v>
       </c>
       <c r="CD14" s="14">
         <f t="shared" ca="1" si="20"/>
-        <v>0.38180405979059229</v>
+        <v>0.38684716696569876</v>
       </c>
       <c r="CE14" s="14">
         <f t="shared" ca="1" si="20"/>
-        <v>0.41820835063890494</v>
+        <v>0.41176585911947172</v>
       </c>
       <c r="CF14" s="14">
         <f t="shared" ca="1" si="20"/>
-        <v>0.48491949070120843</v>
+        <v>0.47199130627668784</v>
       </c>
       <c r="CG14" s="14">
         <f t="shared" ca="1" si="20"/>
-        <v>0.57166867641639296</v>
+        <v>0.5331901512541255</v>
       </c>
       <c r="CH14" s="14">
         <f t="shared" ca="1" si="20"/>
-        <v>0.54671520490227432</v>
+        <v>0.60024768803849504</v>
       </c>
       <c r="CI14" s="14">
         <f t="shared" ca="1" si="20"/>
-        <v>0.5180048773898438</v>
+        <v>0.53982951063178342</v>
       </c>
       <c r="CJ14" s="14">
         <f t="shared" ca="1" si="20"/>
-        <v>0.4430699566006</v>
+        <v>0.39491836076159959</v>
       </c>
       <c r="CK14" s="14">
         <f t="shared" ca="1" si="20"/>
-        <v>0.4157604964390077</v>
+        <v>0.36695217516721212</v>
       </c>
       <c r="CL14" s="14">
         <f t="shared" ca="1" si="20"/>
-        <v>0.39685440906645719</v>
+        <v>0.38892655527988662</v>
       </c>
       <c r="CM14" s="14">
         <f t="shared" ca="1" si="20"/>
-        <v>0.39276977064679808</v>
+        <v>0.38387545922358535</v>
       </c>
       <c r="CN14" s="14">
         <f t="shared" ca="1" si="20"/>
-        <v>0.36580924086521938</v>
+        <v>0.36343784745371654</v>
       </c>
       <c r="CO14" s="14">
         <f t="shared" ca="1" si="20"/>
-        <v>0.39039945643335539</v>
+        <v>0.29659700072196105</v>
       </c>
       <c r="CP14" s="14">
         <f t="shared" ca="1" si="20"/>
-        <v>0.35049252340711179</v>
+        <v>0.23440929194641635</v>
       </c>
       <c r="CQ14" s="14">
         <f t="shared" ca="1" si="20"/>
-        <v>0.31577966806863622</v>
+        <v>0.21626582867759891</v>
       </c>
       <c r="CR14" s="14">
         <f t="shared" ca="1" si="20"/>
-        <v>0.21644413274881447</v>
+        <v>0.13649997891887877</v>
       </c>
       <c r="CS14" s="14">
         <f t="shared" ca="1" si="20"/>
-        <v>0.11838561593324259</v>
+        <v>3.5876071037180934E-2</v>
       </c>
       <c r="CT14" s="14">
         <f t="shared" ca="1" si="20"/>
-        <v>0.10563123507470928</v>
+        <v>1.261049802148384E-2</v>
       </c>
       <c r="CU14" s="14">
         <f t="shared" ca="1" si="20"/>
-        <v>0.10457135383829308</v>
+        <v>4.5114785795000945E-2</v>
       </c>
       <c r="CV14" s="14">
         <f t="shared" ca="1" si="20"/>
-        <v>9.2394171337782938E-2</v>
+        <v>6.0157715486348851E-2</v>
       </c>
       <c r="CW14" s="14">
         <f t="shared" ca="1" si="20"/>
-        <v>5.5567158709695086E-2</v>
+        <v>2.9461233294635569E-2</v>
       </c>
       <c r="CX14" s="14">
         <f t="shared" ca="1" si="20"/>
-        <v>1.4097244448201485E-2</v>
+        <v>5.1173416256580229E-3</v>
       </c>
       <c r="CY14" s="14">
         <f t="shared" ca="1" si="20"/>
-        <v>5.9139189798312675E-2</v>
+        <v>4.952655554864327E-2</v>
       </c>
       <c r="CZ14" s="14">
         <f t="shared" ca="1" si="20"/>
-        <v>7.8310309138509115E-2</v>
+        <v>5.8670831104048249E-2</v>
       </c>
       <c r="DA14" s="14">
         <f t="shared" ca="1" si="20"/>
-        <v>5.6518014505114733E-2</v>
+        <v>8.416440361088795E-2</v>
       </c>
       <c r="DB14" s="14">
         <f t="shared" ca="1" si="20"/>
-        <v>-1.1942241420045185E-2</v>
+        <v>5.5081146673664705E-2</v>
       </c>
       <c r="DC14" s="14">
         <f t="shared" ca="1" si="20"/>
-        <v>-4.1765999244066654E-2</v>
+        <v>1.6768756858960954E-2</v>
       </c>
       <c r="DD14" s="14">
         <f t="shared" ca="1" si="20"/>
-        <v>-2.0082168543197332E-2</v>
+        <v>5.5592087081038688E-2</v>
       </c>
       <c r="DE14" s="14">
         <f t="shared" ca="1" si="20"/>
-        <v>-6.2236287281662639E-2</v>
+        <v>5.5515954594643091E-2</v>
       </c>
       <c r="DF14" s="14">
         <f t="shared" ca="1" si="20"/>
-        <v>-3.435484071027739E-2</v>
+        <v>4.5323626856609955E-2</v>
       </c>
       <c r="DG14" s="14">
         <f t="shared" ca="1" si="20"/>
-        <v>-3.7016681092510773E-2</v>
+        <v>2.4443915968227703E-2</v>
       </c>
       <c r="DH14" s="14">
         <f t="shared" ca="1" si="20"/>
-        <v>-7.8078027753452073E-3</v>
+        <v>5.5921062286193646E-2</v>
       </c>
     </row>
     <row r="15" spans="1:124" x14ac:dyDescent="0.4">
       <c r="H15" s="16">
         <f ca="1">1-COUNTIF(H14:DH14,"&lt;0")/105</f>
-        <v>0.79047619047619044</v>
+        <v>0.93333333333333335</v>
       </c>
     </row>
     <row r="17" spans="5:204" x14ac:dyDescent="0.4">
@@ -12719,598 +12717,598 @@
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0.93677625287212396</v>
+        <v>0.92785161690363305</v>
       </c>
       <c r="H18">
-        <v>1.0325562324922899</v>
+        <v>1.0680291822143999</v>
       </c>
       <c r="I18">
-        <v>1.13633906135853</v>
+        <v>1.17512669711753</v>
       </c>
       <c r="J18">
-        <v>1.0608661556662899</v>
+        <v>1.06536639388113</v>
       </c>
       <c r="K18">
-        <v>0.88717544537249604</v>
+        <v>0.88152613179220196</v>
       </c>
       <c r="L18">
-        <v>0.97895599815130097</v>
+        <v>0.98835398252866002</v>
       </c>
       <c r="M18">
-        <v>0.93019492270684201</v>
+        <v>0.94615570477651201</v>
       </c>
       <c r="N18">
-        <v>1.08528055835251</v>
+        <v>1.0950189069107901</v>
       </c>
       <c r="O18">
-        <v>1.21339910247358</v>
+        <v>1.24298256943981</v>
       </c>
       <c r="P18">
-        <v>1.0621252031742601</v>
+        <v>1.0653841833011899</v>
       </c>
       <c r="Q18">
-        <v>1.08040128279117</v>
+        <v>1.09150158866933</v>
       </c>
       <c r="R18">
-        <v>1.1370822562631</v>
+        <v>1.13589264474079</v>
       </c>
       <c r="S18">
-        <v>1.14147989560146</v>
+        <v>1.1309548603117801</v>
       </c>
       <c r="T18">
-        <v>0.89942953675731296</v>
+        <v>0.91605098019719799</v>
       </c>
       <c r="U18">
-        <v>0.89158438129672901</v>
+        <v>0.89451450124266396</v>
       </c>
       <c r="V18">
-        <v>0.92547218395220399</v>
+        <v>0.92258918306325699</v>
       </c>
       <c r="W18">
-        <v>0.98634940023426498</v>
+        <v>0.98317040353731899</v>
       </c>
       <c r="X18">
-        <v>1.0471935221272599</v>
+        <v>1.0518293536538601</v>
       </c>
       <c r="Y18">
-        <v>0.85908026146705296</v>
+        <v>0.87423567625976595</v>
       </c>
       <c r="Z18">
-        <v>1.0475488700192099</v>
+        <v>1.0508234551884501</v>
       </c>
       <c r="AA18">
-        <v>1.10645146973847</v>
+        <v>1.1146183819967399</v>
       </c>
       <c r="AB18">
-        <v>0.83566365335662995</v>
+        <v>0.84111782583352601</v>
       </c>
       <c r="AC18">
-        <v>0.95750440509335499</v>
+        <v>0.934870879205556</v>
       </c>
       <c r="AD18">
-        <v>1.0059863495641601</v>
+        <v>1.0242019531697399</v>
       </c>
       <c r="AE18">
-        <v>0.93210495065878596</v>
+        <v>0.93607427844471702</v>
       </c>
       <c r="AF18">
-        <v>1.13357905337344</v>
+        <v>1.14469744339518</v>
       </c>
       <c r="AG18">
-        <v>1.1048124556740599</v>
+        <v>1.1198709930858299</v>
       </c>
       <c r="AH18">
-        <v>1.0331031476322701</v>
+        <v>1.0414698385523</v>
       </c>
       <c r="AI18">
-        <v>1.06190260474936</v>
+        <v>1.0656786164074601</v>
       </c>
       <c r="AJ18">
-        <v>1.1041926834731299</v>
+        <v>1.1010378267982199</v>
       </c>
       <c r="AK18">
-        <v>0.94051701983334102</v>
+        <v>0.93435958788916795</v>
       </c>
       <c r="AL18">
-        <v>1.09567923443102</v>
+        <v>1.1067624990663401</v>
       </c>
       <c r="AM18">
-        <v>1.0520355834741399</v>
+        <v>1.03966804682623</v>
       </c>
       <c r="AN18">
-        <v>1.0159212739022001</v>
+        <v>1.02274376991549</v>
       </c>
       <c r="AO18">
-        <v>1.0334528732249</v>
+        <v>1.0352777346584701</v>
       </c>
       <c r="AP18">
-        <v>1.0380427443046201</v>
+        <v>1.03679493334992</v>
       </c>
       <c r="AQ18">
-        <v>1.0179926646725801</v>
+        <v>1.03027343221614</v>
       </c>
       <c r="AR18">
-        <v>1.0037358500745699</v>
+        <v>1.0158175885338701</v>
       </c>
       <c r="AS18">
-        <v>0.90043178126777101</v>
+        <v>0.89141848947561597</v>
       </c>
       <c r="AT18">
-        <v>0.96355491940733096</v>
+        <v>0.97651076341066401</v>
       </c>
       <c r="AU18">
-        <v>0.94264197187464205</v>
+        <v>0.94557110701971503</v>
       </c>
       <c r="AV18">
-        <v>1.1075165168485299</v>
+        <v>1.11911135698688</v>
       </c>
       <c r="AW18">
-        <v>1.0588015318783199</v>
+        <v>1.0681060690022299</v>
       </c>
       <c r="AX18">
-        <v>1.09084182577098</v>
+        <v>1.0975388656045699</v>
       </c>
       <c r="AY18">
-        <v>1.0335277427246501</v>
+        <v>1.0560761388742499</v>
       </c>
       <c r="AZ18">
-        <v>1.01465908045493</v>
+        <v>1.001226457927</v>
       </c>
       <c r="BA18">
-        <v>1.0886474691060299</v>
+        <v>1.0740688455848699</v>
       </c>
       <c r="BB18">
-        <v>1.15619454261445</v>
+        <v>1.15831617569392</v>
       </c>
       <c r="BC18">
-        <v>0.99950112393075596</v>
+        <v>0.98128388263808997</v>
       </c>
       <c r="BD18">
-        <v>0.93918506683244296</v>
+        <v>0.94166175644583905</v>
       </c>
       <c r="BE18">
-        <v>1.04720713071681</v>
+        <v>1.0403310328907101</v>
       </c>
       <c r="BF18">
-        <v>1.1466609496853299</v>
+        <v>1.1464988960742299</v>
       </c>
       <c r="BG18">
-        <v>1.11586535770216</v>
+        <v>1.1165304615037399</v>
       </c>
       <c r="BH18">
-        <v>0.99026890019501701</v>
+        <v>0.98599261217193102</v>
       </c>
       <c r="BI18">
-        <v>1.14392213571616</v>
+        <v>1.18038410959005</v>
       </c>
       <c r="BJ18">
-        <v>1.0501871085168299</v>
+        <v>1.04652434435068</v>
       </c>
       <c r="BK18">
-        <v>1.1192186364783001</v>
+        <v>1.12357854274781</v>
       </c>
       <c r="BL18">
-        <v>1.0600407054346701</v>
+        <v>1.01813915339877</v>
       </c>
       <c r="BM18">
-        <v>0.99607181409432899</v>
+        <v>0.97264417070279496</v>
       </c>
       <c r="BN18">
-        <v>0.95789091659756098</v>
+        <v>0.96683053088857196</v>
       </c>
       <c r="BO18">
-        <v>0.95845637529933803</v>
+        <v>0.99155553576198097</v>
       </c>
       <c r="BP18">
-        <v>1.0562006049414201</v>
+        <v>1.06145080134874</v>
       </c>
       <c r="BQ18">
-        <v>0.93177040022762103</v>
+        <v>0.92620694670487502</v>
       </c>
       <c r="BR18">
-        <v>0.942118603996833</v>
+        <v>0.94035426360295904</v>
       </c>
       <c r="BS18">
-        <v>0.965434959391402</v>
+        <v>0.98228658641550204</v>
       </c>
       <c r="BT18">
-        <v>1.0535015230488201</v>
+        <v>1.0408391478842001</v>
       </c>
       <c r="BU18">
-        <v>1.0177510445364</v>
+        <v>1.0276751494532801</v>
       </c>
       <c r="BV18">
-        <v>0.97156156927148996</v>
+        <v>0.99094857344044496</v>
       </c>
       <c r="BW18">
-        <v>1.0718316643010199</v>
+        <v>1.10795473850354</v>
       </c>
       <c r="BX18">
-        <v>0.97060391920598299</v>
+        <v>0.95262531491470204</v>
       </c>
       <c r="BY18">
-        <v>0.96614184741386699</v>
+        <v>0.97488662934769899</v>
       </c>
       <c r="BZ18">
-        <v>1.0252258149162199</v>
+        <v>1.0283992876108901</v>
       </c>
       <c r="CA18">
-        <v>1.0501730533273901</v>
+        <v>1.06817745897297</v>
       </c>
       <c r="CB18">
-        <v>1.1187625346922201</v>
+        <v>1.1147150265917201</v>
       </c>
       <c r="CC18">
-        <v>1.18268980371084</v>
+        <v>1.1821283809768399</v>
       </c>
       <c r="CD18">
-        <v>1.03386739000468</v>
+        <v>1.05447515250724</v>
       </c>
       <c r="CE18">
-        <v>1.17076031713534</v>
+        <v>1.11807970483912</v>
       </c>
       <c r="CF18">
-        <v>0.93969413409461899</v>
+        <v>0.92635561695428503</v>
       </c>
       <c r="CG18">
-        <v>1.08005943394286</v>
+        <v>0.97633834638489303</v>
       </c>
       <c r="CH18">
-        <v>0.98155497110269496</v>
+        <v>1.0063428676752499</v>
       </c>
       <c r="CI18">
-        <v>0.92237881965573398</v>
+        <v>0.90281452500147696</v>
       </c>
       <c r="CJ18">
-        <v>1.02164351600518</v>
+        <v>1.0306067277830899</v>
       </c>
       <c r="CK18">
-        <v>0.911165330060968</v>
+        <v>0.88238285014662798</v>
       </c>
       <c r="CL18">
-        <v>1.05931240570368</v>
+        <v>1.0622964837181901</v>
       </c>
       <c r="CM18">
-        <v>0.94359587072680595</v>
+        <v>0.98135268406397602</v>
       </c>
       <c r="CN18">
-        <v>1.0487969586781301</v>
+        <v>1.0421411775823499</v>
       </c>
       <c r="CO18">
-        <v>1.01546817909964</v>
+        <v>1.03099885676294</v>
       </c>
       <c r="CP18">
-        <v>0.95249077575990604</v>
+        <v>0.93156206964124599</v>
       </c>
       <c r="CQ18">
-        <v>0.92909361989385897</v>
+        <v>0.914304287432815</v>
       </c>
       <c r="CR18">
-        <v>0.90556045030769705</v>
+        <v>0.91378536515507902</v>
       </c>
       <c r="CS18">
-        <v>0.98441771483137597</v>
+        <v>0.99328637457181701</v>
       </c>
       <c r="CT18">
-        <v>0.71590710084391695</v>
+        <v>0.72959127166219395</v>
       </c>
       <c r="CU18">
-        <v>0.98020961652096195</v>
+        <v>0.99279934228795497</v>
       </c>
       <c r="CV18">
-        <v>1.0409564480618601</v>
+        <v>1.0528491671732201</v>
       </c>
       <c r="CW18">
-        <v>1.02190577753051</v>
+        <v>1.0221028940024599</v>
       </c>
       <c r="CX18">
-        <v>0.93311514612819901</v>
+        <v>0.937627038126706</v>
       </c>
       <c r="CY18">
-        <v>1.1548732216208699</v>
+        <v>1.18945197889112</v>
       </c>
       <c r="CZ18">
-        <v>1.1659209686246099</v>
+        <v>1.1201250608734901</v>
       </c>
       <c r="DA18">
-        <v>1.0163182441612</v>
+        <v>0.98305672460659199</v>
       </c>
       <c r="DB18">
-        <v>1.00332254771348</v>
+        <v>0.99414230154874295</v>
       </c>
       <c r="DC18">
-        <v>1.1490596149843</v>
+        <v>1.1330424937021</v>
       </c>
       <c r="DD18">
-        <v>1.01651224229709</v>
+        <v>1.0453332834867199</v>
       </c>
       <c r="DE18">
-        <v>1.01294367410252</v>
+        <v>0.99409959735593501</v>
       </c>
       <c r="DF18">
-        <v>0.94719805734881601</v>
+        <v>0.95709716729883298</v>
       </c>
       <c r="DG18">
-        <v>1.0098116981748999</v>
+        <v>1.0012521501533</v>
       </c>
       <c r="DH18">
-        <v>1.0788828776446799</v>
+        <v>1.1156083758064801</v>
       </c>
       <c r="DI18">
-        <v>0.95267660703953605</v>
+        <v>0.94435546618870403</v>
       </c>
       <c r="DJ18">
-        <v>0.99499257995458701</v>
+        <v>0.98769964636005203</v>
       </c>
       <c r="DK18">
-        <v>1.0676269859985399</v>
+        <v>1.0749209731642699</v>
       </c>
       <c r="DL18">
-        <v>1.0483117935127499</v>
+        <v>1.0386672980981</v>
       </c>
       <c r="DM18">
-        <v>0.95374017799375599</v>
+        <v>0.94587059629533099</v>
       </c>
       <c r="DN18">
-        <v>1.0646552944952701</v>
+        <v>1.06586300101899</v>
       </c>
       <c r="DO18">
-        <v>1.0072796052611599</v>
+        <v>1.0271994781028899</v>
       </c>
       <c r="DP18">
-        <v>0.96830677332932702</v>
+        <v>0.95881599965374797</v>
       </c>
       <c r="DQ18">
-        <v>1.0544782192405899</v>
+        <v>1.0602872417718101</v>
       </c>
       <c r="DR18">
-        <v>1.0801680628241499</v>
+        <v>1.06237713281723</v>
       </c>
       <c r="DS18">
-        <v>1.0040016783564101</v>
+        <v>1.02077482218014</v>
       </c>
       <c r="DT18">
-        <v>1.06881108817711</v>
+        <v>1.0528724296465299</v>
       </c>
       <c r="DU18">
-        <v>1.0055926873766601</v>
+        <v>1.01334425449773</v>
       </c>
       <c r="DV18">
-        <v>0.94680708768926103</v>
+        <v>0.93904141437538102</v>
       </c>
       <c r="DW18">
-        <v>1.05039346761193</v>
+        <v>1.0975934572833601</v>
       </c>
       <c r="DX18">
-        <v>1.0363300613109501</v>
+        <v>1.1111421761596401</v>
       </c>
       <c r="DY18">
-        <v>0.94180553181513305</v>
+        <v>0.96728464332586095</v>
       </c>
       <c r="DZ18">
-        <v>1.01222533531792</v>
+        <v>0.99195622134371497</v>
       </c>
       <c r="EA18">
-        <v>1.0776570271973001</v>
+        <v>1.1380280559595399</v>
       </c>
       <c r="EB18">
-        <v>0.91413469322358498</v>
+        <v>0.89813586102207699</v>
       </c>
       <c r="EC18">
-        <v>0.91296855243179298</v>
+        <v>0.92611840731069595</v>
       </c>
       <c r="ED18">
-        <v>1.09878507049299</v>
+        <v>1.07890111128058</v>
       </c>
       <c r="EE18">
-        <v>0.99568977529227198</v>
+        <v>1.0125469090357899</v>
       </c>
       <c r="EF18">
-        <v>1.03183300021444</v>
+        <v>1.0465489879837699</v>
       </c>
       <c r="EG18">
-        <v>1.0373795888997701</v>
+        <v>1.03781296777957</v>
       </c>
       <c r="EH18">
-        <v>1.0660503178513501</v>
+        <v>1.07490691947613</v>
       </c>
       <c r="EI18">
-        <v>0.97881130843944297</v>
+        <v>0.98144099196994505</v>
       </c>
       <c r="EJ18">
-        <v>0.98575823205544</v>
+        <v>0.98225028076493603</v>
       </c>
       <c r="EK18">
-        <v>0.92479648166927697</v>
+        <v>0.93274575434801099</v>
       </c>
       <c r="EL18">
-        <v>1.0162086868361799</v>
+        <v>1.0175180795022101</v>
       </c>
       <c r="EM18">
-        <v>0.99238259973098397</v>
+        <v>1.0073605544499999</v>
       </c>
       <c r="EN18">
-        <v>1.0609778532338101</v>
+        <v>1.0565997198105399</v>
       </c>
       <c r="EO18">
-        <v>1.03467532764342</v>
+        <v>1.0436905326961601</v>
       </c>
       <c r="EP18">
-        <v>1.0118083973732099</v>
+        <v>0.98355800191382403</v>
       </c>
       <c r="EQ18">
-        <v>1.0343504378944499</v>
+        <v>1.0716734734264</v>
       </c>
       <c r="ER18">
-        <v>1.0287922166871699</v>
+        <v>1.0220213102389</v>
       </c>
       <c r="ES18">
-        <v>1.03112347966796</v>
+        <v>1.01279399195856</v>
       </c>
       <c r="ET18">
-        <v>1.02696923813276</v>
+        <v>1.0402670077438601</v>
       </c>
       <c r="EU18">
-        <v>1.03459619952495</v>
+        <v>1.0373133408588799</v>
       </c>
       <c r="EV18">
-        <v>1.04678154329899</v>
+        <v>1.0807620032580101</v>
       </c>
       <c r="EW18">
-        <v>0.99191264894307296</v>
+        <v>1.0065839425541201</v>
       </c>
       <c r="EX18">
-        <v>0.89421894808363001</v>
+        <v>0.88849880591511199</v>
       </c>
       <c r="EY18">
-        <v>1.0083155809495701</v>
+        <v>1.00900973903713</v>
       </c>
       <c r="EZ18">
-        <v>0.96401225162428905</v>
+        <v>0.98807997550445403</v>
       </c>
       <c r="FA18">
-        <v>1.02515790271796</v>
+        <v>1.0365191288989899</v>
       </c>
       <c r="FB18">
-        <v>1.0112830120326299</v>
+        <v>1.0283895617591201</v>
       </c>
       <c r="FC18">
-        <v>1.0073566378768699</v>
+        <v>1.0221259460119001</v>
       </c>
       <c r="FD18">
-        <v>0.94437333338734397</v>
+        <v>0.94327512706138805</v>
       </c>
       <c r="FE18">
-        <v>1.0180776515088801</v>
+        <v>0.98693782452365997</v>
       </c>
       <c r="FF18">
-        <v>1.0329225531876201</v>
+        <v>1.04298487557558</v>
       </c>
       <c r="FG18">
-        <v>1.0316801712905199</v>
+        <v>1.03822108913982</v>
       </c>
       <c r="FH18">
-        <v>1.02888058541005</v>
+        <v>1.0271592218619701</v>
       </c>
       <c r="FI18">
-        <v>1.0483672533287201</v>
+        <v>1.06237982933105</v>
       </c>
       <c r="FJ18">
-        <v>0.99751248209257204</v>
+        <v>0.97965081745728699</v>
       </c>
       <c r="FK18">
-        <v>1.05730548886305</v>
+        <v>1.04389540898044</v>
       </c>
       <c r="FL18">
-        <v>1.0457999032731</v>
+        <v>1.0612128623568799</v>
       </c>
       <c r="FM18">
-        <v>1.03283992488771</v>
+        <v>1.0257099094316899</v>
       </c>
       <c r="FN18">
-        <v>0.99903036975234305</v>
+        <v>0.97468198746500501</v>
       </c>
       <c r="FO18">
-        <v>0.99278511669082303</v>
+        <v>0.99695959500438502</v>
       </c>
       <c r="FP18">
-        <v>0.98974053822656805</v>
+        <v>0.99918966154522104</v>
       </c>
       <c r="FQ18">
-        <v>1.0400911459986799</v>
+        <v>1.07003712602715</v>
       </c>
       <c r="FR18">
-        <v>1.06983571403787</v>
+        <v>1.0607095445996999</v>
       </c>
       <c r="FS18">
-        <v>1.0774110492745299</v>
+        <v>1.0754947169429301</v>
       </c>
       <c r="FT18">
-        <v>1.1164640379197299</v>
+        <v>1.1103601035480899</v>
       </c>
       <c r="FU18">
-        <v>1.0901357255503901</v>
+        <v>1.0876166275511201</v>
       </c>
       <c r="FV18">
-        <v>0.96751535092484198</v>
+        <v>1.0060542688613801</v>
       </c>
       <c r="FW18">
-        <v>0.99931657828689202</v>
+        <v>0.96828560813018305</v>
       </c>
       <c r="FX18">
-        <v>0.96594739957353004</v>
+        <v>0.93241936734818998</v>
       </c>
       <c r="FY18">
-        <v>1.0371423969667799</v>
+        <v>1.02963182180858</v>
       </c>
       <c r="FZ18">
-        <v>1.0296750987744101</v>
+        <v>1.03543656758244</v>
       </c>
       <c r="GA18">
-        <v>0.97088483230480405</v>
+        <v>0.97416705293971295</v>
       </c>
       <c r="GB18">
-        <v>0.98355297534697705</v>
+        <v>0.99759358880006299</v>
       </c>
       <c r="GC18">
-        <v>1.0263488157004499</v>
+        <v>0.98535361557695</v>
       </c>
       <c r="GD18">
-        <v>1.0264280255957301</v>
+        <v>0.99601252056454204</v>
       </c>
       <c r="GE18">
-        <v>1.0593693489562599</v>
+        <v>1.0705976302293601</v>
       </c>
       <c r="GF18">
-        <v>0.99586873604370796</v>
+        <v>0.99862599837506405</v>
       </c>
       <c r="GG18">
-        <v>0.99787486504575995</v>
+        <v>0.98611910041482598</v>
       </c>
       <c r="GH18">
-        <v>0.96688483748127696</v>
+        <v>0.99448310050361199</v>
       </c>
       <c r="GI18">
-        <v>1.0391981998149</v>
+        <v>1.04442773646205</v>
       </c>
       <c r="GJ18">
-        <v>1.00351190130891</v>
+        <v>0.99520245081125702</v>
       </c>
       <c r="GK18">
-        <v>0.99745745777609995</v>
+        <v>0.99478436262020797</v>
       </c>
       <c r="GL18">
-        <v>0.94223915308494</v>
+        <v>0.96193040712691003</v>
       </c>
       <c r="GM18">
-        <v>1.0204784431943199</v>
+        <v>1.0237578726638601</v>
       </c>
       <c r="GN18">
-        <v>1.0363734316294899</v>
+        <v>1.0420912143821901</v>
       </c>
       <c r="GO18">
-        <v>1.05065299575489</v>
+        <v>1.0517789281177099</v>
       </c>
       <c r="GP18">
-        <v>0.97365906256828605</v>
+        <v>0.97967276262470504</v>
       </c>
       <c r="GQ18">
-        <v>1.0213297908386101</v>
+        <v>1.0264749471008601</v>
       </c>
       <c r="GR18">
-        <v>1.0392004833337301</v>
+        <v>1.0553359484962701</v>
       </c>
       <c r="GS18">
-        <v>1.03040987784801</v>
+        <v>1.0518991221335601</v>
       </c>
       <c r="GT18">
-        <v>1.01712216805468</v>
+        <v>1.01068456407052</v>
       </c>
       <c r="GU18">
-        <v>1.0173094958837701</v>
+        <v>1.0087104782598399</v>
       </c>
       <c r="GV18">
-        <v>1.0026195753338201</v>
+        <v>0.99621840641542903</v>
       </c>
     </row>
     <row r="20" spans="5:204" x14ac:dyDescent="0.4">
@@ -21020,9 +21018,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="W61" sqref="W61"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
